--- a/Mapa.xlsx
+++ b/Mapa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22068" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22068" windowHeight="9504"/>
   </bookViews>
   <sheets>
     <sheet name="Piso 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Norte</t>
   </si>
@@ -73,10 +73,13 @@
     <t>6 P2</t>
   </si>
   <si>
-    <t>3 P1</t>
-  </si>
-  <si>
-    <t>30 P3</t>
+    <t>3 Piso 1</t>
+  </si>
+  <si>
+    <t>30 Piso3</t>
+  </si>
+  <si>
+    <t>este es el bueno</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -944,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -955,7 +958,7 @@
     <col min="2" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="49.95" customHeight="1">
+    <row r="2" spans="2:17" ht="49.95" customHeight="1">
       <c r="B2" s="4">
         <v>6</v>
       </c>
@@ -963,8 +966,15 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" ht="49.95" customHeight="1">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="49.95" customHeight="1">
       <c r="B3" s="4">
         <v>7</v>
       </c>
@@ -978,8 +988,24 @@
         <v>27</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" ht="49.95" customHeight="1">
+      <c r="K3" s="2"/>
+      <c r="L3" s="4">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4">
+        <v>28</v>
+      </c>
+      <c r="N3" s="4">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="49.95" customHeight="1">
       <c r="B4" s="4">
         <v>8</v>
       </c>
@@ -991,8 +1017,19 @@
       <c r="F4" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="49.95" customHeight="1">
+      <c r="K4" s="4">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="49.95" customHeight="1">
       <c r="B5" s="17">
         <v>9</v>
       </c>
@@ -1006,8 +1043,21 @@
       <c r="F5" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="49.95" customHeight="1">
+      <c r="K5" s="4">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="4">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="49.95" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="4">
         <v>13</v>
@@ -1021,8 +1071,21 @@
       <c r="F6" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="49.95" customHeight="1">
+      <c r="K6" s="4">
+        <v>23</v>
+      </c>
+      <c r="L6" s="4">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4">
+        <v>13</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" ht="49.95" customHeight="1">
       <c r="B7" s="4">
         <v>15</v>
       </c>
@@ -1034,8 +1097,19 @@
       <c r="F7" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="49.95" customHeight="1">
+      <c r="K7" s="4">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4">
+        <v>14</v>
+      </c>
+      <c r="O7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="49.95" customHeight="1">
       <c r="B8" s="4">
         <v>16</v>
       </c>
@@ -1051,9 +1125,24 @@
       <c r="F8" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1"/>
-    <row r="11" spans="2:13" ht="15" thickBot="1">
+      <c r="K8" s="4">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4">
+        <v>18</v>
+      </c>
+      <c r="N8" s="4">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="15" thickBot="1"/>
+    <row r="11" spans="2:17" ht="15" thickBot="1">
       <c r="B11" s="1"/>
       <c r="C11" s="19" t="s">
         <v>0</v>
@@ -1089,7 +1178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1">
+    <row r="12" spans="2:17" ht="15" thickBot="1">
       <c r="B12" s="22">
         <v>6</v>
       </c>
@@ -1109,7 +1198,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1">
+    <row r="13" spans="2:17" ht="15" thickBot="1">
       <c r="B13" s="22">
         <v>7</v>
       </c>
@@ -1131,7 +1220,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1">
+    <row r="14" spans="2:17" ht="15" thickBot="1">
       <c r="B14" s="22">
         <v>8</v>
       </c>
@@ -1151,7 +1240,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1">
+    <row r="15" spans="2:17" ht="15" thickBot="1">
       <c r="B15" s="22">
         <v>9</v>
       </c>
@@ -1171,7 +1260,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1">
+    <row r="16" spans="2:17" ht="15" thickBot="1">
       <c r="B16" s="22">
         <v>10</v>
       </c>
@@ -1587,6 +1676,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
